--- a/Data/2020_10_28.xlsx
+++ b/Data/2020_10_28.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
-  <si>
-    <t xml:space="preserve">Daten des Coronavirussituationsberichts, Stand 2020-10-27 08:00 Uhr</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+  <si>
+    <t xml:space="preserve">Daten des Coronavirussituationsberichts, Stand 2020-10-28 08:00 Uhr</t>
   </si>
   <si>
     <t xml:space="preserve">Quelle: BAG/MT</t>
@@ -301,199 +301,148 @@
     <t xml:space="preserve">Inzidenz Quarantäne nach Einreise aus Risikoland</t>
   </si>
   <si>
-    <t xml:space="preserve">453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
+    <t xml:space="preserve">680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keine aktuellen Daten gemeldet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116</t>
   </si>
   <si>
     <t xml:space="preserve">75</t>
   </si>
   <si>
-    <t xml:space="preserve">150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2913</t>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">321</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">1317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keine aktuellen Daten gemeldet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5428</t>
+    <t xml:space="preserve">134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4705</t>
   </si>
 </sst>
 </file>
@@ -3128,10 +3077,10 @@
         <v>43984</v>
       </c>
       <c r="B107" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C107" t="n">
-        <v>30960</v>
+        <v>30961</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -3154,7 +3103,7 @@
         <v>23</v>
       </c>
       <c r="C108" t="n">
-        <v>30983</v>
+        <v>30984</v>
       </c>
       <c r="D108" t="n">
         <v>2</v>
@@ -3177,7 +3126,7 @@
         <v>17</v>
       </c>
       <c r="C109" t="n">
-        <v>31000</v>
+        <v>31001</v>
       </c>
       <c r="D109" t="n">
         <v>3</v>
@@ -3200,7 +3149,7 @@
         <v>15</v>
       </c>
       <c r="C110" t="n">
-        <v>31015</v>
+        <v>31016</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -3223,7 +3172,7 @@
         <v>10</v>
       </c>
       <c r="C111" t="n">
-        <v>31025</v>
+        <v>31026</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -3246,7 +3195,7 @@
         <v>8</v>
       </c>
       <c r="C112" t="n">
-        <v>31033</v>
+        <v>31034</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -3269,7 +3218,7 @@
         <v>25</v>
       </c>
       <c r="C113" t="n">
-        <v>31058</v>
+        <v>31059</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
@@ -3292,7 +3241,7 @@
         <v>11</v>
       </c>
       <c r="C114" t="n">
-        <v>31069</v>
+        <v>31070</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -3315,7 +3264,7 @@
         <v>24</v>
       </c>
       <c r="C115" t="n">
-        <v>31093</v>
+        <v>31094</v>
       </c>
       <c r="D115" t="n">
         <v>1</v>
@@ -3338,7 +3287,7 @@
         <v>25</v>
       </c>
       <c r="C116" t="n">
-        <v>31118</v>
+        <v>31119</v>
       </c>
       <c r="D116" t="n">
         <v>1</v>
@@ -3361,7 +3310,7 @@
         <v>34</v>
       </c>
       <c r="C117" t="n">
-        <v>31152</v>
+        <v>31153</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -3384,7 +3333,7 @@
         <v>9</v>
       </c>
       <c r="C118" t="n">
-        <v>31161</v>
+        <v>31162</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -3407,7 +3356,7 @@
         <v>12</v>
       </c>
       <c r="C119" t="n">
-        <v>31173</v>
+        <v>31174</v>
       </c>
       <c r="D119" t="n">
         <v>1</v>
@@ -3430,7 +3379,7 @@
         <v>32</v>
       </c>
       <c r="C120" t="n">
-        <v>31205</v>
+        <v>31206</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
@@ -3453,7 +3402,7 @@
         <v>21</v>
       </c>
       <c r="C121" t="n">
-        <v>31226</v>
+        <v>31227</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -3476,7 +3425,7 @@
         <v>18</v>
       </c>
       <c r="C122" t="n">
-        <v>31244</v>
+        <v>31245</v>
       </c>
       <c r="D122" t="n">
         <v>2</v>
@@ -3499,7 +3448,7 @@
         <v>18</v>
       </c>
       <c r="C123" t="n">
-        <v>31262</v>
+        <v>31263</v>
       </c>
       <c r="D123" t="n">
         <v>3</v>
@@ -3522,7 +3471,7 @@
         <v>37</v>
       </c>
       <c r="C124" t="n">
-        <v>31299</v>
+        <v>31300</v>
       </c>
       <c r="D124" t="n">
         <v>3</v>
@@ -3545,7 +3494,7 @@
         <v>32</v>
       </c>
       <c r="C125" t="n">
-        <v>31331</v>
+        <v>31332</v>
       </c>
       <c r="D125" t="n">
         <v>6</v>
@@ -3568,7 +3517,7 @@
         <v>13</v>
       </c>
       <c r="C126" t="n">
-        <v>31344</v>
+        <v>31345</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -3591,7 +3540,7 @@
         <v>56</v>
       </c>
       <c r="C127" t="n">
-        <v>31400</v>
+        <v>31401</v>
       </c>
       <c r="D127" t="n">
         <v>3</v>
@@ -3614,7 +3563,7 @@
         <v>37</v>
       </c>
       <c r="C128" t="n">
-        <v>31437</v>
+        <v>31438</v>
       </c>
       <c r="D128" t="n">
         <v>3</v>
@@ -3637,7 +3586,7 @@
         <v>64</v>
       </c>
       <c r="C129" t="n">
-        <v>31501</v>
+        <v>31502</v>
       </c>
       <c r="D129" t="n">
         <v>3</v>
@@ -3660,7 +3609,7 @@
         <v>48</v>
       </c>
       <c r="C130" t="n">
-        <v>31549</v>
+        <v>31550</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -3683,7 +3632,7 @@
         <v>92</v>
       </c>
       <c r="C131" t="n">
-        <v>31641</v>
+        <v>31642</v>
       </c>
       <c r="D131" t="n">
         <v>4</v>
@@ -3706,7 +3655,7 @@
         <v>36</v>
       </c>
       <c r="C132" t="n">
-        <v>31677</v>
+        <v>31678</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>
@@ -3729,7 +3678,7 @@
         <v>22</v>
       </c>
       <c r="C133" t="n">
-        <v>31699</v>
+        <v>31700</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
@@ -3752,7 +3701,7 @@
         <v>158</v>
       </c>
       <c r="C134" t="n">
-        <v>31857</v>
+        <v>31858</v>
       </c>
       <c r="D134" t="n">
         <v>5</v>
@@ -3775,7 +3724,7 @@
         <v>136</v>
       </c>
       <c r="C135" t="n">
-        <v>31993</v>
+        <v>31994</v>
       </c>
       <c r="D135" t="n">
         <v>8</v>
@@ -3798,7 +3747,7 @@
         <v>102</v>
       </c>
       <c r="C136" t="n">
-        <v>32095</v>
+        <v>32096</v>
       </c>
       <c r="D136" t="n">
         <v>6</v>
@@ -3821,7 +3770,7 @@
         <v>127</v>
       </c>
       <c r="C137" t="n">
-        <v>32222</v>
+        <v>32223</v>
       </c>
       <c r="D137" t="n">
         <v>5</v>
@@ -3844,7 +3793,7 @@
         <v>96</v>
       </c>
       <c r="C138" t="n">
-        <v>32318</v>
+        <v>32319</v>
       </c>
       <c r="D138" t="n">
         <v>5</v>
@@ -3867,7 +3816,7 @@
         <v>26</v>
       </c>
       <c r="C139" t="n">
-        <v>32344</v>
+        <v>32345</v>
       </c>
       <c r="D139" t="n">
         <v>2</v>
@@ -3890,7 +3839,7 @@
         <v>37</v>
       </c>
       <c r="C140" t="n">
-        <v>32381</v>
+        <v>32382</v>
       </c>
       <c r="D140" t="n">
         <v>7</v>
@@ -3913,7 +3862,7 @@
         <v>105</v>
       </c>
       <c r="C141" t="n">
-        <v>32486</v>
+        <v>32487</v>
       </c>
       <c r="D141" t="n">
         <v>2</v>
@@ -3936,13 +3885,13 @@
         <v>107</v>
       </c>
       <c r="C142" t="n">
-        <v>32593</v>
+        <v>32594</v>
       </c>
       <c r="D142" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E142" t="n">
-        <v>4060</v>
+        <v>4061</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -3959,13 +3908,13 @@
         <v>96</v>
       </c>
       <c r="C143" t="n">
-        <v>32689</v>
+        <v>32690</v>
       </c>
       <c r="D143" t="n">
         <v>2</v>
       </c>
       <c r="E143" t="n">
-        <v>4062</v>
+        <v>4063</v>
       </c>
       <c r="F143" t="n">
         <v>2</v>
@@ -3982,13 +3931,13 @@
         <v>97</v>
       </c>
       <c r="C144" t="n">
-        <v>32786</v>
+        <v>32787</v>
       </c>
       <c r="D144" t="n">
         <v>11</v>
       </c>
       <c r="E144" t="n">
-        <v>4073</v>
+        <v>4074</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -4005,13 +3954,13 @@
         <v>111</v>
       </c>
       <c r="C145" t="n">
-        <v>32897</v>
+        <v>32898</v>
       </c>
       <c r="D145" t="n">
         <v>7</v>
       </c>
       <c r="E145" t="n">
-        <v>4080</v>
+        <v>4081</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -4028,13 +3977,13 @@
         <v>70</v>
       </c>
       <c r="C146" t="n">
-        <v>32967</v>
+        <v>32968</v>
       </c>
       <c r="D146" t="n">
         <v>10</v>
       </c>
       <c r="E146" t="n">
-        <v>4090</v>
+        <v>4091</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4051,13 +4000,13 @@
         <v>46</v>
       </c>
       <c r="C147" t="n">
-        <v>33013</v>
+        <v>33014</v>
       </c>
       <c r="D147" t="n">
         <v>12</v>
       </c>
       <c r="E147" t="n">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -4074,13 +4023,13 @@
         <v>120</v>
       </c>
       <c r="C148" t="n">
-        <v>33133</v>
+        <v>33134</v>
       </c>
       <c r="D148" t="n">
         <v>5</v>
       </c>
       <c r="E148" t="n">
-        <v>4107</v>
+        <v>4108</v>
       </c>
       <c r="F148" t="n">
         <v>1</v>
@@ -4097,13 +4046,13 @@
         <v>128</v>
       </c>
       <c r="C149" t="n">
-        <v>33261</v>
+        <v>33262</v>
       </c>
       <c r="D149" t="n">
         <v>5</v>
       </c>
       <c r="E149" t="n">
-        <v>4112</v>
+        <v>4113</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -4120,13 +4069,13 @@
         <v>122</v>
       </c>
       <c r="C150" t="n">
-        <v>33383</v>
+        <v>33384</v>
       </c>
       <c r="D150" t="n">
         <v>7</v>
       </c>
       <c r="E150" t="n">
-        <v>4119</v>
+        <v>4120</v>
       </c>
       <c r="F150" t="n">
         <v>1</v>
@@ -4143,13 +4092,13 @@
         <v>106</v>
       </c>
       <c r="C151" t="n">
-        <v>33489</v>
+        <v>33490</v>
       </c>
       <c r="D151" t="n">
         <v>5</v>
       </c>
       <c r="E151" t="n">
-        <v>4124</v>
+        <v>4125</v>
       </c>
       <c r="F151" t="n">
         <v>1</v>
@@ -4166,13 +4115,13 @@
         <v>115</v>
       </c>
       <c r="C152" t="n">
-        <v>33604</v>
+        <v>33605</v>
       </c>
       <c r="D152" t="n">
         <v>6</v>
       </c>
       <c r="E152" t="n">
-        <v>4130</v>
+        <v>4131</v>
       </c>
       <c r="F152" t="n">
         <v>1</v>
@@ -4189,13 +4138,13 @@
         <v>80</v>
       </c>
       <c r="C153" t="n">
-        <v>33684</v>
+        <v>33685</v>
       </c>
       <c r="D153" t="n">
         <v>6</v>
       </c>
       <c r="E153" t="n">
-        <v>4136</v>
+        <v>4137</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -4212,13 +4161,13 @@
         <v>41</v>
       </c>
       <c r="C154" t="n">
-        <v>33725</v>
+        <v>33726</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>4137</v>
+        <v>4138</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -4235,13 +4184,13 @@
         <v>127</v>
       </c>
       <c r="C155" t="n">
-        <v>33852</v>
+        <v>33853</v>
       </c>
       <c r="D155" t="n">
         <v>7</v>
       </c>
       <c r="E155" t="n">
-        <v>4144</v>
+        <v>4145</v>
       </c>
       <c r="F155" t="n">
         <v>2</v>
@@ -4258,13 +4207,13 @@
         <v>138</v>
       </c>
       <c r="C156" t="n">
-        <v>33990</v>
+        <v>33991</v>
       </c>
       <c r="D156" t="n">
         <v>6</v>
       </c>
       <c r="E156" t="n">
-        <v>4150</v>
+        <v>4151</v>
       </c>
       <c r="F156" t="n">
         <v>1</v>
@@ -4281,13 +4230,13 @@
         <v>117</v>
       </c>
       <c r="C157" t="n">
-        <v>34107</v>
+        <v>34108</v>
       </c>
       <c r="D157" t="n">
         <v>7</v>
       </c>
       <c r="E157" t="n">
-        <v>4157</v>
+        <v>4158</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -4304,13 +4253,13 @@
         <v>143</v>
       </c>
       <c r="C158" t="n">
-        <v>34250</v>
+        <v>34251</v>
       </c>
       <c r="D158" t="n">
         <v>7</v>
       </c>
       <c r="E158" t="n">
-        <v>4164</v>
+        <v>4165</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -4327,13 +4276,13 @@
         <v>148</v>
       </c>
       <c r="C159" t="n">
-        <v>34398</v>
+        <v>34399</v>
       </c>
       <c r="D159" t="n">
         <v>14</v>
       </c>
       <c r="E159" t="n">
-        <v>4178</v>
+        <v>4179</v>
       </c>
       <c r="F159" t="n">
         <v>1</v>
@@ -4350,13 +4299,13 @@
         <v>95</v>
       </c>
       <c r="C160" t="n">
-        <v>34493</v>
+        <v>34494</v>
       </c>
       <c r="D160" t="n">
         <v>10</v>
       </c>
       <c r="E160" t="n">
-        <v>4188</v>
+        <v>4189</v>
       </c>
       <c r="F160" t="n">
         <v>1</v>
@@ -4373,13 +4322,13 @@
         <v>57</v>
       </c>
       <c r="C161" t="n">
-        <v>34550</v>
+        <v>34551</v>
       </c>
       <c r="D161" t="n">
         <v>4</v>
       </c>
       <c r="E161" t="n">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -4396,13 +4345,13 @@
         <v>193</v>
       </c>
       <c r="C162" t="n">
-        <v>34743</v>
+        <v>34744</v>
       </c>
       <c r="D162" t="n">
         <v>7</v>
       </c>
       <c r="E162" t="n">
-        <v>4199</v>
+        <v>4200</v>
       </c>
       <c r="F162" t="n">
         <v>1</v>
@@ -4419,13 +4368,13 @@
         <v>188</v>
       </c>
       <c r="C163" t="n">
-        <v>34931</v>
+        <v>34932</v>
       </c>
       <c r="D163" t="n">
         <v>12</v>
       </c>
       <c r="E163" t="n">
-        <v>4211</v>
+        <v>4212</v>
       </c>
       <c r="F163" t="n">
         <v>1</v>
@@ -4442,13 +4391,13 @@
         <v>220</v>
       </c>
       <c r="C164" t="n">
-        <v>35151</v>
+        <v>35152</v>
       </c>
       <c r="D164" t="n">
         <v>14</v>
       </c>
       <c r="E164" t="n">
-        <v>4225</v>
+        <v>4226</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -4465,13 +4414,13 @@
         <v>211</v>
       </c>
       <c r="C165" t="n">
-        <v>35362</v>
+        <v>35363</v>
       </c>
       <c r="D165" t="n">
         <v>5</v>
       </c>
       <c r="E165" t="n">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -4488,13 +4437,13 @@
         <v>163</v>
       </c>
       <c r="C166" t="n">
-        <v>35525</v>
+        <v>35526</v>
       </c>
       <c r="D166" t="n">
         <v>8</v>
       </c>
       <c r="E166" t="n">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="F166" t="n">
         <v>2</v>
@@ -4511,13 +4460,13 @@
         <v>96</v>
       </c>
       <c r="C167" t="n">
-        <v>35621</v>
+        <v>35622</v>
       </c>
       <c r="D167" t="n">
         <v>6</v>
       </c>
       <c r="E167" t="n">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="F167" t="n">
         <v>1</v>
@@ -4534,13 +4483,13 @@
         <v>80</v>
       </c>
       <c r="C168" t="n">
-        <v>35701</v>
+        <v>35702</v>
       </c>
       <c r="D168" t="n">
         <v>5</v>
       </c>
       <c r="E168" t="n">
-        <v>4249</v>
+        <v>4250</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -4557,13 +4506,13 @@
         <v>196</v>
       </c>
       <c r="C169" t="n">
-        <v>35897</v>
+        <v>35898</v>
       </c>
       <c r="D169" t="n">
         <v>4</v>
       </c>
       <c r="E169" t="n">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -4580,13 +4529,13 @@
         <v>181</v>
       </c>
       <c r="C170" t="n">
-        <v>36078</v>
+        <v>36079</v>
       </c>
       <c r="D170" t="n">
         <v>2</v>
       </c>
       <c r="E170" t="n">
-        <v>4255</v>
+        <v>4256</v>
       </c>
       <c r="F170" t="n">
         <v>1</v>
@@ -4603,13 +4552,13 @@
         <v>152</v>
       </c>
       <c r="C171" t="n">
-        <v>36230</v>
+        <v>36231</v>
       </c>
       <c r="D171" t="n">
         <v>7</v>
       </c>
       <c r="E171" t="n">
-        <v>4262</v>
+        <v>4263</v>
       </c>
       <c r="F171" t="n">
         <v>1</v>
@@ -4626,13 +4575,13 @@
         <v>156</v>
       </c>
       <c r="C172" t="n">
-        <v>36386</v>
+        <v>36387</v>
       </c>
       <c r="D172" t="n">
         <v>11</v>
       </c>
       <c r="E172" t="n">
-        <v>4273</v>
+        <v>4274</v>
       </c>
       <c r="F172" t="n">
         <v>1</v>
@@ -4649,13 +4598,13 @@
         <v>184</v>
       </c>
       <c r="C173" t="n">
-        <v>36570</v>
+        <v>36571</v>
       </c>
       <c r="D173" t="n">
         <v>6</v>
       </c>
       <c r="E173" t="n">
-        <v>4279</v>
+        <v>4280</v>
       </c>
       <c r="F173" t="n">
         <v>1</v>
@@ -4672,13 +4621,13 @@
         <v>130</v>
       </c>
       <c r="C174" t="n">
-        <v>36700</v>
+        <v>36701</v>
       </c>
       <c r="D174" t="n">
         <v>8</v>
       </c>
       <c r="E174" t="n">
-        <v>4287</v>
+        <v>4288</v>
       </c>
       <c r="F174" t="n">
         <v>1</v>
@@ -4695,13 +4644,13 @@
         <v>99</v>
       </c>
       <c r="C175" t="n">
-        <v>36799</v>
+        <v>36800</v>
       </c>
       <c r="D175" t="n">
         <v>7</v>
       </c>
       <c r="E175" t="n">
-        <v>4294</v>
+        <v>4295</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
@@ -4718,13 +4667,13 @@
         <v>281</v>
       </c>
       <c r="C176" t="n">
-        <v>37080</v>
+        <v>37081</v>
       </c>
       <c r="D176" t="n">
         <v>8</v>
       </c>
       <c r="E176" t="n">
-        <v>4302</v>
+        <v>4303</v>
       </c>
       <c r="F176" t="n">
         <v>1</v>
@@ -4741,13 +4690,13 @@
         <v>255</v>
       </c>
       <c r="C177" t="n">
-        <v>37335</v>
+        <v>37336</v>
       </c>
       <c r="D177" t="n">
         <v>4</v>
       </c>
       <c r="E177" t="n">
-        <v>4306</v>
+        <v>4307</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -4764,13 +4713,13 @@
         <v>247</v>
       </c>
       <c r="C178" t="n">
-        <v>37582</v>
+        <v>37583</v>
       </c>
       <c r="D178" t="n">
         <v>5</v>
       </c>
       <c r="E178" t="n">
-        <v>4311</v>
+        <v>4312</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -4787,13 +4736,13 @@
         <v>273</v>
       </c>
       <c r="C179" t="n">
-        <v>37855</v>
+        <v>37856</v>
       </c>
       <c r="D179" t="n">
         <v>9</v>
       </c>
       <c r="E179" t="n">
-        <v>4320</v>
+        <v>4321</v>
       </c>
       <c r="F179" t="n">
         <v>1</v>
@@ -4810,13 +4759,13 @@
         <v>234</v>
       </c>
       <c r="C180" t="n">
-        <v>38089</v>
+        <v>38090</v>
       </c>
       <c r="D180" t="n">
         <v>6</v>
       </c>
       <c r="E180" t="n">
-        <v>4326</v>
+        <v>4327</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -4833,13 +4782,13 @@
         <v>149</v>
       </c>
       <c r="C181" t="n">
-        <v>38238</v>
+        <v>38239</v>
       </c>
       <c r="D181" t="n">
         <v>8</v>
       </c>
       <c r="E181" t="n">
-        <v>4334</v>
+        <v>4335</v>
       </c>
       <c r="F181" t="n">
         <v>3</v>
@@ -4856,13 +4805,13 @@
         <v>141</v>
       </c>
       <c r="C182" t="n">
-        <v>38379</v>
+        <v>38380</v>
       </c>
       <c r="D182" t="n">
         <v>7</v>
       </c>
       <c r="E182" t="n">
-        <v>4341</v>
+        <v>4342</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -4879,13 +4828,13 @@
         <v>286</v>
       </c>
       <c r="C183" t="n">
-        <v>38665</v>
+        <v>38666</v>
       </c>
       <c r="D183" t="n">
         <v>9</v>
       </c>
       <c r="E183" t="n">
-        <v>4350</v>
+        <v>4351</v>
       </c>
       <c r="F183" t="n">
         <v>1</v>
@@ -4902,13 +4851,13 @@
         <v>295</v>
       </c>
       <c r="C184" t="n">
-        <v>38960</v>
+        <v>38961</v>
       </c>
       <c r="D184" t="n">
         <v>7</v>
       </c>
       <c r="E184" t="n">
-        <v>4357</v>
+        <v>4358</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -4925,13 +4874,13 @@
         <v>284</v>
       </c>
       <c r="C185" t="n">
-        <v>39244</v>
+        <v>39245</v>
       </c>
       <c r="D185" t="n">
         <v>6</v>
       </c>
       <c r="E185" t="n">
-        <v>4363</v>
+        <v>4364</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -4948,13 +4897,13 @@
         <v>350</v>
       </c>
       <c r="C186" t="n">
-        <v>39594</v>
+        <v>39595</v>
       </c>
       <c r="D186" t="n">
         <v>7</v>
       </c>
       <c r="E186" t="n">
-        <v>4370</v>
+        <v>4371</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -4971,13 +4920,13 @@
         <v>314</v>
       </c>
       <c r="C187" t="n">
-        <v>39908</v>
+        <v>39909</v>
       </c>
       <c r="D187" t="n">
         <v>8</v>
       </c>
       <c r="E187" t="n">
-        <v>4378</v>
+        <v>4379</v>
       </c>
       <c r="F187" t="n">
         <v>1</v>
@@ -4994,13 +4943,13 @@
         <v>193</v>
       </c>
       <c r="C188" t="n">
-        <v>40101</v>
+        <v>40102</v>
       </c>
       <c r="D188" t="n">
         <v>4</v>
       </c>
       <c r="E188" t="n">
-        <v>4382</v>
+        <v>4383</v>
       </c>
       <c r="F188" t="n">
         <v>1</v>
@@ -5017,13 +4966,13 @@
         <v>136</v>
       </c>
       <c r="C189" t="n">
-        <v>40237</v>
+        <v>40238</v>
       </c>
       <c r="D189" t="n">
         <v>6</v>
       </c>
       <c r="E189" t="n">
-        <v>4388</v>
+        <v>4389</v>
       </c>
       <c r="F189" t="n">
         <v>2</v>
@@ -5040,13 +4989,13 @@
         <v>306</v>
       </c>
       <c r="C190" t="n">
-        <v>40543</v>
+        <v>40544</v>
       </c>
       <c r="D190" t="n">
         <v>7</v>
       </c>
       <c r="E190" t="n">
-        <v>4395</v>
+        <v>4396</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
@@ -5063,13 +5012,13 @@
         <v>337</v>
       </c>
       <c r="C191" t="n">
-        <v>40880</v>
+        <v>40881</v>
       </c>
       <c r="D191" t="n">
         <v>5</v>
       </c>
       <c r="E191" t="n">
-        <v>4400</v>
+        <v>4401</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -5086,13 +5035,13 @@
         <v>362</v>
       </c>
       <c r="C192" t="n">
-        <v>41242</v>
+        <v>41243</v>
       </c>
       <c r="D192" t="n">
         <v>6</v>
       </c>
       <c r="E192" t="n">
-        <v>4406</v>
+        <v>4407</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -5109,13 +5058,13 @@
         <v>352</v>
       </c>
       <c r="C193" t="n">
-        <v>41594</v>
+        <v>41595</v>
       </c>
       <c r="D193" t="n">
         <v>5</v>
       </c>
       <c r="E193" t="n">
-        <v>4411</v>
+        <v>4412</v>
       </c>
       <c r="F193" t="n">
         <v>2</v>
@@ -5132,13 +5081,13 @@
         <v>374</v>
       </c>
       <c r="C194" t="n">
-        <v>41968</v>
+        <v>41969</v>
       </c>
       <c r="D194" t="n">
         <v>9</v>
       </c>
       <c r="E194" t="n">
-        <v>4420</v>
+        <v>4421</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -5155,13 +5104,13 @@
         <v>216</v>
       </c>
       <c r="C195" t="n">
-        <v>42184</v>
+        <v>42185</v>
       </c>
       <c r="D195" t="n">
         <v>2</v>
       </c>
       <c r="E195" t="n">
-        <v>4422</v>
+        <v>4423</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -5178,13 +5127,13 @@
         <v>144</v>
       </c>
       <c r="C196" t="n">
-        <v>42328</v>
+        <v>42329</v>
       </c>
       <c r="D196" t="n">
         <v>7</v>
       </c>
       <c r="E196" t="n">
-        <v>4429</v>
+        <v>4430</v>
       </c>
       <c r="F196" t="n">
         <v>1</v>
@@ -5201,13 +5150,13 @@
         <v>346</v>
       </c>
       <c r="C197" t="n">
-        <v>42674</v>
+        <v>42675</v>
       </c>
       <c r="D197" t="n">
         <v>6</v>
       </c>
       <c r="E197" t="n">
-        <v>4435</v>
+        <v>4436</v>
       </c>
       <c r="F197" t="n">
         <v>1</v>
@@ -5224,13 +5173,13 @@
         <v>364</v>
       </c>
       <c r="C198" t="n">
-        <v>43038</v>
+        <v>43039</v>
       </c>
       <c r="D198" t="n">
         <v>10</v>
       </c>
       <c r="E198" t="n">
-        <v>4445</v>
+        <v>4446</v>
       </c>
       <c r="F198" t="n">
         <v>1</v>
@@ -5247,13 +5196,13 @@
         <v>415</v>
       </c>
       <c r="C199" t="n">
-        <v>43453</v>
+        <v>43454</v>
       </c>
       <c r="D199" t="n">
         <v>10</v>
       </c>
       <c r="E199" t="n">
-        <v>4455</v>
+        <v>4456</v>
       </c>
       <c r="F199" t="n">
         <v>3</v>
@@ -5270,13 +5219,13 @@
         <v>436</v>
       </c>
       <c r="C200" t="n">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="D200" t="n">
         <v>8</v>
       </c>
       <c r="E200" t="n">
-        <v>4463</v>
+        <v>4464</v>
       </c>
       <c r="F200" t="n">
         <v>1</v>
@@ -5293,13 +5242,13 @@
         <v>424</v>
       </c>
       <c r="C201" t="n">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="D201" t="n">
         <v>9</v>
       </c>
       <c r="E201" t="n">
-        <v>4472</v>
+        <v>4473</v>
       </c>
       <c r="F201" t="n">
         <v>2</v>
@@ -5316,13 +5265,13 @@
         <v>293</v>
       </c>
       <c r="C202" t="n">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="D202" t="n">
         <v>8</v>
       </c>
       <c r="E202" t="n">
-        <v>4480</v>
+        <v>4481</v>
       </c>
       <c r="F202" t="n">
         <v>2</v>
@@ -5339,13 +5288,13 @@
         <v>170</v>
       </c>
       <c r="C203" t="n">
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="D203" t="n">
         <v>7</v>
       </c>
       <c r="E203" t="n">
-        <v>4487</v>
+        <v>4488</v>
       </c>
       <c r="F203" t="n">
         <v>3</v>
@@ -5362,13 +5311,13 @@
         <v>466</v>
       </c>
       <c r="C204" t="n">
-        <v>45242</v>
+        <v>45243</v>
       </c>
       <c r="D204" t="n">
         <v>14</v>
       </c>
       <c r="E204" t="n">
-        <v>4501</v>
+        <v>4502</v>
       </c>
       <c r="F204" t="n">
         <v>1</v>
@@ -5385,13 +5334,13 @@
         <v>388</v>
       </c>
       <c r="C205" t="n">
-        <v>45630</v>
+        <v>45631</v>
       </c>
       <c r="D205" t="n">
         <v>6</v>
       </c>
       <c r="E205" t="n">
-        <v>4507</v>
+        <v>4508</v>
       </c>
       <c r="F205" t="n">
         <v>1</v>
@@ -5408,13 +5357,13 @@
         <v>461</v>
       </c>
       <c r="C206" t="n">
-        <v>46091</v>
+        <v>46092</v>
       </c>
       <c r="D206" t="n">
         <v>11</v>
       </c>
       <c r="E206" t="n">
-        <v>4518</v>
+        <v>4519</v>
       </c>
       <c r="F206" t="n">
         <v>7</v>
@@ -5431,13 +5380,13 @@
         <v>506</v>
       </c>
       <c r="C207" t="n">
-        <v>46597</v>
+        <v>46598</v>
       </c>
       <c r="D207" t="n">
         <v>17</v>
       </c>
       <c r="E207" t="n">
-        <v>4535</v>
+        <v>4536</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
@@ -5454,13 +5403,13 @@
         <v>531</v>
       </c>
       <c r="C208" t="n">
-        <v>47128</v>
+        <v>47129</v>
       </c>
       <c r="D208" t="n">
         <v>12</v>
       </c>
       <c r="E208" t="n">
-        <v>4547</v>
+        <v>4548</v>
       </c>
       <c r="F208" t="n">
         <v>4</v>
@@ -5477,13 +5426,13 @@
         <v>266</v>
       </c>
       <c r="C209" t="n">
-        <v>47394</v>
+        <v>47395</v>
       </c>
       <c r="D209" t="n">
         <v>13</v>
       </c>
       <c r="E209" t="n">
-        <v>4560</v>
+        <v>4561</v>
       </c>
       <c r="F209" t="n">
         <v>3</v>
@@ -5500,13 +5449,13 @@
         <v>238</v>
       </c>
       <c r="C210" t="n">
-        <v>47632</v>
+        <v>47633</v>
       </c>
       <c r="D210" t="n">
         <v>11</v>
       </c>
       <c r="E210" t="n">
-        <v>4571</v>
+        <v>4572</v>
       </c>
       <c r="F210" t="n">
         <v>1</v>
@@ -5523,13 +5472,13 @@
         <v>502</v>
       </c>
       <c r="C211" t="n">
-        <v>48134</v>
+        <v>48135</v>
       </c>
       <c r="D211" t="n">
         <v>10</v>
       </c>
       <c r="E211" t="n">
-        <v>4581</v>
+        <v>4582</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -5546,13 +5495,13 @@
         <v>458</v>
       </c>
       <c r="C212" t="n">
-        <v>48592</v>
+        <v>48593</v>
       </c>
       <c r="D212" t="n">
         <v>10</v>
       </c>
       <c r="E212" t="n">
-        <v>4591</v>
+        <v>4592</v>
       </c>
       <c r="F212" t="n">
         <v>3</v>
@@ -5569,13 +5518,13 @@
         <v>516</v>
       </c>
       <c r="C213" t="n">
-        <v>49108</v>
+        <v>49109</v>
       </c>
       <c r="D213" t="n">
         <v>20</v>
       </c>
       <c r="E213" t="n">
-        <v>4611</v>
+        <v>4612</v>
       </c>
       <c r="F213" t="n">
         <v>5</v>
@@ -5592,13 +5541,13 @@
         <v>498</v>
       </c>
       <c r="C214" t="n">
-        <v>49606</v>
+        <v>49607</v>
       </c>
       <c r="D214" t="n">
         <v>9</v>
       </c>
       <c r="E214" t="n">
-        <v>4620</v>
+        <v>4621</v>
       </c>
       <c r="F214" t="n">
         <v>4</v>
@@ -5615,13 +5564,13 @@
         <v>445</v>
       </c>
       <c r="C215" t="n">
-        <v>50051</v>
+        <v>50052</v>
       </c>
       <c r="D215" t="n">
         <v>16</v>
       </c>
       <c r="E215" t="n">
-        <v>4636</v>
+        <v>4637</v>
       </c>
       <c r="F215" t="n">
         <v>2</v>
@@ -5638,13 +5587,13 @@
         <v>285</v>
       </c>
       <c r="C216" t="n">
-        <v>50336</v>
+        <v>50337</v>
       </c>
       <c r="D216" t="n">
         <v>8</v>
       </c>
       <c r="E216" t="n">
-        <v>4644</v>
+        <v>4645</v>
       </c>
       <c r="F216" t="n">
         <v>1</v>
@@ -5661,13 +5610,13 @@
         <v>201</v>
       </c>
       <c r="C217" t="n">
-        <v>50537</v>
+        <v>50538</v>
       </c>
       <c r="D217" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E217" t="n">
-        <v>4655</v>
+        <v>4657</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
@@ -5684,13 +5633,13 @@
         <v>395</v>
       </c>
       <c r="C218" t="n">
-        <v>50932</v>
+        <v>50933</v>
       </c>
       <c r="D218" t="n">
         <v>16</v>
       </c>
       <c r="E218" t="n">
-        <v>4671</v>
+        <v>4673</v>
       </c>
       <c r="F218" t="n">
         <v>3</v>
@@ -5707,13 +5656,13 @@
         <v>425</v>
       </c>
       <c r="C219" t="n">
-        <v>51357</v>
+        <v>51358</v>
       </c>
       <c r="D219" t="n">
         <v>6</v>
       </c>
       <c r="E219" t="n">
-        <v>4677</v>
+        <v>4679</v>
       </c>
       <c r="F219" t="n">
         <v>1</v>
@@ -5730,13 +5679,13 @@
         <v>386</v>
       </c>
       <c r="C220" t="n">
-        <v>51743</v>
+        <v>51744</v>
       </c>
       <c r="D220" t="n">
         <v>11</v>
       </c>
       <c r="E220" t="n">
-        <v>4688</v>
+        <v>4690</v>
       </c>
       <c r="F220" t="n">
         <v>1</v>
@@ -5753,13 +5702,13 @@
         <v>309</v>
       </c>
       <c r="C221" t="n">
-        <v>52052</v>
+        <v>52053</v>
       </c>
       <c r="D221" t="n">
         <v>12</v>
       </c>
       <c r="E221" t="n">
-        <v>4700</v>
+        <v>4702</v>
       </c>
       <c r="F221" t="n">
         <v>3</v>
@@ -5776,13 +5725,13 @@
         <v>359</v>
       </c>
       <c r="C222" t="n">
-        <v>52411</v>
+        <v>52412</v>
       </c>
       <c r="D222" t="n">
         <v>10</v>
       </c>
       <c r="E222" t="n">
-        <v>4710</v>
+        <v>4712</v>
       </c>
       <c r="F222" t="n">
         <v>1</v>
@@ -5799,13 +5748,13 @@
         <v>222</v>
       </c>
       <c r="C223" t="n">
-        <v>52633</v>
+        <v>52634</v>
       </c>
       <c r="D223" t="n">
         <v>7</v>
       </c>
       <c r="E223" t="n">
-        <v>4717</v>
+        <v>4719</v>
       </c>
       <c r="F223" t="n">
         <v>2</v>
@@ -5822,13 +5771,13 @@
         <v>120</v>
       </c>
       <c r="C224" t="n">
-        <v>52753</v>
+        <v>52754</v>
       </c>
       <c r="D224" t="n">
         <v>17</v>
       </c>
       <c r="E224" t="n">
-        <v>4734</v>
+        <v>4736</v>
       </c>
       <c r="F224" t="n">
         <v>1</v>
@@ -5845,13 +5794,13 @@
         <v>367</v>
       </c>
       <c r="C225" t="n">
-        <v>53120</v>
+        <v>53121</v>
       </c>
       <c r="D225" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E225" t="n">
-        <v>4747</v>
+        <v>4750</v>
       </c>
       <c r="F225" t="n">
         <v>3</v>
@@ -5868,13 +5817,13 @@
         <v>448</v>
       </c>
       <c r="C226" t="n">
-        <v>53568</v>
+        <v>53569</v>
       </c>
       <c r="D226" t="n">
         <v>21</v>
       </c>
       <c r="E226" t="n">
-        <v>4768</v>
+        <v>4771</v>
       </c>
       <c r="F226" t="n">
         <v>1</v>
@@ -5891,13 +5840,13 @@
         <v>538</v>
       </c>
       <c r="C227" t="n">
-        <v>54106</v>
+        <v>54107</v>
       </c>
       <c r="D227" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E227" t="n">
-        <v>4784</v>
+        <v>4788</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -5914,13 +5863,13 @@
         <v>597</v>
       </c>
       <c r="C228" t="n">
-        <v>54703</v>
+        <v>54704</v>
       </c>
       <c r="D228" t="n">
         <v>10</v>
       </c>
       <c r="E228" t="n">
-        <v>4794</v>
+        <v>4798</v>
       </c>
       <c r="F228" t="n">
         <v>4</v>
@@ -5937,13 +5886,13 @@
         <v>674</v>
       </c>
       <c r="C229" t="n">
-        <v>55377</v>
+        <v>55378</v>
       </c>
       <c r="D229" t="n">
         <v>18</v>
       </c>
       <c r="E229" t="n">
-        <v>4812</v>
+        <v>4816</v>
       </c>
       <c r="F229" t="n">
         <v>0</v>
@@ -5957,16 +5906,16 @@
         <v>44107</v>
       </c>
       <c r="B230" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C230" t="n">
-        <v>55887</v>
+        <v>55889</v>
       </c>
       <c r="D230" t="n">
         <v>11</v>
       </c>
       <c r="E230" t="n">
-        <v>4823</v>
+        <v>4827</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
@@ -5983,13 +5932,13 @@
         <v>314</v>
       </c>
       <c r="C231" t="n">
-        <v>56201</v>
+        <v>56203</v>
       </c>
       <c r="D231" t="n">
         <v>10</v>
       </c>
       <c r="E231" t="n">
-        <v>4833</v>
+        <v>4837</v>
       </c>
       <c r="F231" t="n">
         <v>1</v>
@@ -6006,13 +5955,13 @@
         <v>1020</v>
       </c>
       <c r="C232" t="n">
-        <v>57221</v>
+        <v>57223</v>
       </c>
       <c r="D232" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E232" t="n">
-        <v>4843</v>
+        <v>4849</v>
       </c>
       <c r="F232" t="n">
         <v>2</v>
@@ -6026,16 +5975,16 @@
         <v>44110</v>
       </c>
       <c r="B233" t="n">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C233" t="n">
-        <v>58317</v>
+        <v>58320</v>
       </c>
       <c r="D233" t="n">
         <v>24</v>
       </c>
       <c r="E233" t="n">
-        <v>4867</v>
+        <v>4873</v>
       </c>
       <c r="F233" t="n">
         <v>1</v>
@@ -6049,16 +5998,16 @@
         <v>44111</v>
       </c>
       <c r="B234" t="n">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C234" t="n">
-        <v>59697</v>
+        <v>59699</v>
       </c>
       <c r="D234" t="n">
         <v>29</v>
       </c>
       <c r="E234" t="n">
-        <v>4896</v>
+        <v>4902</v>
       </c>
       <c r="F234" t="n">
         <v>2</v>
@@ -6072,16 +6021,16 @@
         <v>44112</v>
       </c>
       <c r="B235" t="n">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C235" t="n">
-        <v>61171</v>
+        <v>61172</v>
       </c>
       <c r="D235" t="n">
         <v>38</v>
       </c>
       <c r="E235" t="n">
-        <v>4934</v>
+        <v>4940</v>
       </c>
       <c r="F235" t="n">
         <v>3</v>
@@ -6098,13 +6047,13 @@
         <v>1725</v>
       </c>
       <c r="C236" t="n">
-        <v>62896</v>
+        <v>62897</v>
       </c>
       <c r="D236" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E236" t="n">
-        <v>4967</v>
+        <v>4974</v>
       </c>
       <c r="F236" t="n">
         <v>3</v>
@@ -6121,13 +6070,13 @@
         <v>1252</v>
       </c>
       <c r="C237" t="n">
-        <v>64148</v>
+        <v>64149</v>
       </c>
       <c r="D237" t="n">
         <v>27</v>
       </c>
       <c r="E237" t="n">
-        <v>4994</v>
+        <v>5001</v>
       </c>
       <c r="F237" t="n">
         <v>3</v>
@@ -6141,16 +6090,16 @@
         <v>44115</v>
       </c>
       <c r="B238" t="n">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C238" t="n">
-        <v>64955</v>
+        <v>64957</v>
       </c>
       <c r="D238" t="n">
         <v>35</v>
       </c>
       <c r="E238" t="n">
-        <v>5029</v>
+        <v>5036</v>
       </c>
       <c r="F238" t="n">
         <v>3</v>
@@ -6167,13 +6116,13 @@
         <v>2563</v>
       </c>
       <c r="C239" t="n">
-        <v>67518</v>
+        <v>67520</v>
       </c>
       <c r="D239" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E239" t="n">
-        <v>5083</v>
+        <v>5092</v>
       </c>
       <c r="F239" t="n">
         <v>5</v>
@@ -6190,13 +6139,13 @@
         <v>2692</v>
       </c>
       <c r="C240" t="n">
-        <v>70210</v>
+        <v>70212</v>
       </c>
       <c r="D240" t="n">
         <v>46</v>
       </c>
       <c r="E240" t="n">
-        <v>5129</v>
+        <v>5138</v>
       </c>
       <c r="F240" t="n">
         <v>5</v>
@@ -6213,13 +6162,13 @@
         <v>2999</v>
       </c>
       <c r="C241" t="n">
-        <v>73209</v>
+        <v>73211</v>
       </c>
       <c r="D241" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E241" t="n">
-        <v>5198</v>
+        <v>5208</v>
       </c>
       <c r="F241" t="n">
         <v>4</v>
@@ -6233,16 +6182,16 @@
         <v>44119</v>
       </c>
       <c r="B242" t="n">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="C242" t="n">
-        <v>76603</v>
+        <v>76604</v>
       </c>
       <c r="D242" t="n">
         <v>64</v>
       </c>
       <c r="E242" t="n">
-        <v>5262</v>
+        <v>5272</v>
       </c>
       <c r="F242" t="n">
         <v>5</v>
@@ -6256,16 +6205,16 @@
         <v>44120</v>
       </c>
       <c r="B243" t="n">
-        <v>3690</v>
+        <v>3691</v>
       </c>
       <c r="C243" t="n">
-        <v>80293</v>
+        <v>80295</v>
       </c>
       <c r="D243" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E243" t="n">
-        <v>5324</v>
+        <v>5337</v>
       </c>
       <c r="F243" t="n">
         <v>8</v>
@@ -6282,13 +6231,13 @@
         <v>2379</v>
       </c>
       <c r="C244" t="n">
-        <v>82672</v>
+        <v>82674</v>
       </c>
       <c r="D244" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E244" t="n">
-        <v>5402</v>
+        <v>5417</v>
       </c>
       <c r="F244" t="n">
         <v>6</v>
@@ -6305,19 +6254,19 @@
         <v>1791</v>
       </c>
       <c r="C245" t="n">
-        <v>84463</v>
+        <v>84465</v>
       </c>
       <c r="D245" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E245" t="n">
-        <v>5452</v>
+        <v>5473</v>
       </c>
       <c r="F245" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G245" t="n">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="246">
@@ -6325,22 +6274,22 @@
         <v>44123</v>
       </c>
       <c r="B246" t="n">
-        <v>5407</v>
+        <v>5411</v>
       </c>
       <c r="C246" t="n">
-        <v>89870</v>
+        <v>89876</v>
       </c>
       <c r="D246" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E246" t="n">
-        <v>5570</v>
+        <v>5592</v>
       </c>
       <c r="F246" t="n">
         <v>11</v>
       </c>
       <c r="G246" t="n">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="247">
@@ -6348,22 +6297,22 @@
         <v>44124</v>
       </c>
       <c r="B247" t="n">
-        <v>5660</v>
+        <v>5667</v>
       </c>
       <c r="C247" t="n">
-        <v>95530</v>
+        <v>95543</v>
       </c>
       <c r="D247" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E247" t="n">
-        <v>5666</v>
+        <v>5693</v>
       </c>
       <c r="F247" t="n">
         <v>10</v>
       </c>
       <c r="G247" t="n">
-        <v>1871</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="248">
@@ -6371,22 +6320,22 @@
         <v>44125</v>
       </c>
       <c r="B248" t="n">
-        <v>6457</v>
+        <v>6467</v>
       </c>
       <c r="C248" t="n">
-        <v>101987</v>
+        <v>102010</v>
       </c>
       <c r="D248" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E248" t="n">
-        <v>5744</v>
+        <v>5777</v>
       </c>
       <c r="F248" t="n">
         <v>9</v>
       </c>
       <c r="G248" t="n">
-        <v>1880</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="249">
@@ -6397,19 +6346,19 @@
         <v>6771</v>
       </c>
       <c r="C249" t="n">
-        <v>108758</v>
+        <v>108781</v>
       </c>
       <c r="D249" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E249" t="n">
-        <v>5825</v>
+        <v>5869</v>
       </c>
       <c r="F249" t="n">
         <v>17</v>
       </c>
       <c r="G249" t="n">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="250">
@@ -6417,22 +6366,22 @@
         <v>44127</v>
       </c>
       <c r="B250" t="n">
-        <v>7406</v>
+        <v>7453</v>
       </c>
       <c r="C250" t="n">
-        <v>116164</v>
+        <v>116234</v>
       </c>
       <c r="D250" t="n">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="E250" t="n">
-        <v>5898</v>
+        <v>5964</v>
       </c>
       <c r="F250" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G250" t="n">
-        <v>1908</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="251">
@@ -6440,22 +6389,22 @@
         <v>44128</v>
       </c>
       <c r="B251" t="n">
-        <v>4442</v>
+        <v>4549</v>
       </c>
       <c r="C251" t="n">
-        <v>120606</v>
+        <v>120783</v>
       </c>
       <c r="D251" t="n">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E251" t="n">
-        <v>5951</v>
+        <v>6034</v>
       </c>
       <c r="F251" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G251" t="n">
-        <v>1919</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="252">
@@ -6463,22 +6412,22 @@
         <v>44129</v>
       </c>
       <c r="B252" t="n">
-        <v>2916</v>
+        <v>3123</v>
       </c>
       <c r="C252" t="n">
-        <v>123522</v>
+        <v>123906</v>
       </c>
       <c r="D252" t="n">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E252" t="n">
-        <v>5995</v>
+        <v>6096</v>
       </c>
       <c r="F252" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G252" t="n">
-        <v>1929</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="253">
@@ -6486,22 +6435,22 @@
         <v>44130</v>
       </c>
       <c r="B253" t="n">
-        <v>3506</v>
+        <v>7931</v>
       </c>
       <c r="C253" t="n">
-        <v>127028</v>
+        <v>131837</v>
       </c>
       <c r="D253" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E253" t="n">
-        <v>6013</v>
+        <v>6144</v>
       </c>
       <c r="F253" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G253" t="n">
-        <v>1930</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="254">
@@ -6509,22 +6458,45 @@
         <v>44131</v>
       </c>
       <c r="B254" t="n">
-        <v>14</v>
+        <v>3816</v>
       </c>
       <c r="C254" t="n">
-        <v>127042</v>
+        <v>135653</v>
       </c>
       <c r="D254" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E254" t="n">
-        <v>6013</v>
+        <v>6156</v>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G254" t="n">
-        <v>1930</v>
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>44132</v>
+      </c>
+      <c r="B255" t="n">
+        <v>5</v>
+      </c>
+      <c r="C255" t="n">
+        <v>135658</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
+      <c r="E255" t="n">
+        <v>6156</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0</v>
+      </c>
+      <c r="G255" t="n">
+        <v>1954</v>
       </c>
     </row>
   </sheetData>
@@ -6614,31 +6586,31 @@
         <v>25</v>
       </c>
       <c r="B8" t="n">
-        <v>537</v>
+        <v>579</v>
       </c>
       <c r="C8" t="n">
         <v>0.9</v>
       </c>
       <c r="D8" t="n">
-        <v>119.9</v>
+        <v>129.3</v>
       </c>
       <c r="E8" t="n">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="F8" t="n">
         <v>0.7</v>
       </c>
       <c r="G8" t="n">
-        <v>103.5</v>
+        <v>111</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>977</v>
+        <v>1051</v>
       </c>
       <c r="K8" t="n">
         <v>0.8</v>
@@ -6649,34 +6621,34 @@
         <v>26</v>
       </c>
       <c r="B9" t="n">
-        <v>4339</v>
+        <v>4723</v>
       </c>
       <c r="C9" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>996.9</v>
+        <v>1085.1</v>
       </c>
       <c r="E9" t="n">
-        <v>4456</v>
+        <v>4799</v>
       </c>
       <c r="F9" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>1087.1</v>
+        <v>1170.8</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>4.4</v>
+        <v>6.1</v>
       </c>
       <c r="J9" t="n">
-        <v>8797</v>
+        <v>9525</v>
       </c>
       <c r="K9" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -6684,34 +6656,34 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>12484</v>
+        <v>13289</v>
       </c>
       <c r="C10" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="D10" t="n">
-        <v>2310.3</v>
+        <v>2459.3</v>
       </c>
       <c r="E10" t="n">
-        <v>12623</v>
+        <v>13332</v>
       </c>
       <c r="F10" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="G10" t="n">
-        <v>2442</v>
+        <v>2579.2</v>
       </c>
       <c r="H10" t="n">
         <v>8</v>
       </c>
       <c r="I10" t="n">
-        <v>17.8</v>
+        <v>16.3</v>
       </c>
       <c r="J10" t="n">
-        <v>25115</v>
+        <v>26629</v>
       </c>
       <c r="K10" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="11">
@@ -6719,31 +6691,31 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>11236</v>
+        <v>11982</v>
       </c>
       <c r="C11" t="n">
         <v>17.9</v>
       </c>
       <c r="D11" t="n">
-        <v>1824.1</v>
+        <v>1945.2</v>
       </c>
       <c r="E11" t="n">
-        <v>10930</v>
+        <v>11685</v>
       </c>
       <c r="F11" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="G11" t="n">
-        <v>1809.3</v>
+        <v>1934.3</v>
       </c>
       <c r="H11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I11" t="n">
-        <v>26.7</v>
+        <v>28.6</v>
       </c>
       <c r="J11" t="n">
-        <v>22178</v>
+        <v>23681</v>
       </c>
       <c r="K11" t="n">
         <v>17.5</v>
@@ -6754,31 +6726,31 @@
         <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>9679</v>
+        <v>10332</v>
       </c>
       <c r="C12" t="n">
         <v>15.4</v>
       </c>
       <c r="D12" t="n">
-        <v>1590.8</v>
+        <v>1698.1</v>
       </c>
       <c r="E12" t="n">
-        <v>10506</v>
+        <v>11181</v>
       </c>
       <c r="F12" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="G12" t="n">
-        <v>1746.5</v>
+        <v>1858.7</v>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="J12" t="n">
-        <v>20194</v>
+        <v>21523</v>
       </c>
       <c r="K12" t="n">
         <v>15.9</v>
@@ -6789,31 +6761,31 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>10651</v>
+        <v>11389</v>
       </c>
       <c r="C13" t="n">
         <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>1639.4</v>
+        <v>1753</v>
       </c>
       <c r="E13" t="n">
-        <v>10783</v>
+        <v>11557</v>
       </c>
       <c r="F13" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="G13" t="n">
-        <v>1688.7</v>
+        <v>1810</v>
       </c>
       <c r="H13" t="n">
         <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>11.1</v>
+        <v>10.2</v>
       </c>
       <c r="J13" t="n">
-        <v>21439</v>
+        <v>22951</v>
       </c>
       <c r="K13" t="n">
         <v>16.9</v>
@@ -6824,31 +6796,31 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>6434</v>
+        <v>6893</v>
       </c>
       <c r="C14" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.5</v>
+        <v>1498.3</v>
       </c>
       <c r="E14" t="n">
-        <v>5695</v>
+        <v>6129</v>
       </c>
       <c r="F14" t="n">
         <v>8.9</v>
       </c>
       <c r="G14" t="n">
-        <v>1196</v>
+        <v>1287.1</v>
       </c>
       <c r="H14" t="n">
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>11.1</v>
+        <v>10.2</v>
       </c>
       <c r="J14" t="n">
-        <v>12134</v>
+        <v>13027</v>
       </c>
       <c r="K14" t="n">
         <v>9.6</v>
@@ -6859,31 +6831,31 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>4272</v>
+        <v>4538</v>
       </c>
       <c r="C15" t="n">
         <v>6.8</v>
       </c>
       <c r="D15" t="n">
-        <v>1295.2</v>
+        <v>1375.8</v>
       </c>
       <c r="E15" t="n">
-        <v>3748</v>
+        <v>4061</v>
       </c>
       <c r="F15" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="G15" t="n">
-        <v>988.7</v>
+        <v>1071.3</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="J15" t="n">
-        <v>8023</v>
+        <v>8602</v>
       </c>
       <c r="K15" t="n">
         <v>6.3</v>
@@ -6894,22 +6866,22 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>3154</v>
+        <v>3335</v>
       </c>
       <c r="C16" t="n">
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>1868.9</v>
+        <v>1976.2</v>
       </c>
       <c r="E16" t="n">
-        <v>4971</v>
+        <v>5270</v>
       </c>
       <c r="F16" t="n">
         <v>7.7</v>
       </c>
       <c r="G16" t="n">
-        <v>1798.8</v>
+        <v>1907</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -6918,10 +6890,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>8125</v>
+        <v>8605</v>
       </c>
       <c r="K16" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="17">
@@ -6929,14 +6901,14 @@
         <v>34</v>
       </c>
       <c r="B17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F17" t="n">
         <v>0.1</v>
@@ -6949,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -7027,16 +6999,16 @@
         <v>41</v>
       </c>
       <c r="B8" t="n">
-        <v>5741</v>
+        <v>6186</v>
       </c>
       <c r="C8" t="n">
-        <v>846.5</v>
+        <v>912.1</v>
       </c>
       <c r="E8" t="n">
-        <v>2596</v>
+        <v>2905</v>
       </c>
       <c r="F8" t="n">
-        <v>382.8</v>
+        <v>428.3</v>
       </c>
     </row>
     <row r="9">
@@ -7044,16 +7016,16 @@
         <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="C9" t="n">
-        <v>1486.5</v>
+        <v>1734.3</v>
       </c>
       <c r="E9" t="n">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="F9" t="n">
-        <v>941.5</v>
+        <v>1127.3</v>
       </c>
     </row>
     <row r="10">
@@ -7061,16 +7033,16 @@
         <v>43</v>
       </c>
       <c r="B10" t="n">
-        <v>572</v>
+        <v>637</v>
       </c>
       <c r="C10" t="n">
-        <v>1035.6</v>
+        <v>1153.3</v>
       </c>
       <c r="E10" t="n">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="F10" t="n">
-        <v>595.6</v>
+        <v>673.5</v>
       </c>
     </row>
     <row r="11">
@@ -7078,16 +7050,16 @@
         <v>44</v>
       </c>
       <c r="B11" t="n">
-        <v>10272</v>
+        <v>11095</v>
       </c>
       <c r="C11" t="n">
-        <v>992.5</v>
+        <v>1072</v>
       </c>
       <c r="E11" t="n">
-        <v>5477</v>
+        <v>6059</v>
       </c>
       <c r="F11" t="n">
-        <v>529.2</v>
+        <v>585.4</v>
       </c>
     </row>
     <row r="12">
@@ -7095,16 +7067,16 @@
         <v>45</v>
       </c>
       <c r="B12" t="n">
-        <v>2333</v>
+        <v>2409</v>
       </c>
       <c r="C12" t="n">
-        <v>809.7</v>
+        <v>836.1</v>
       </c>
       <c r="E12" t="n">
-        <v>951</v>
+        <v>997</v>
       </c>
       <c r="F12" t="n">
-        <v>330.1</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13">
@@ -7112,16 +7084,16 @@
         <v>46</v>
       </c>
       <c r="B13" t="n">
-        <v>2345</v>
+        <v>2438</v>
       </c>
       <c r="C13" t="n">
-        <v>1204</v>
+        <v>1251.8</v>
       </c>
       <c r="E13" t="n">
-        <v>685</v>
+        <v>759</v>
       </c>
       <c r="F13" t="n">
-        <v>351.7</v>
+        <v>389.7</v>
       </c>
     </row>
     <row r="14">
@@ -7129,16 +7101,16 @@
         <v>47</v>
       </c>
       <c r="B14" t="n">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="C14" t="n">
-        <v>1141.3</v>
+        <v>1201.2</v>
       </c>
       <c r="E14" t="n">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="F14" t="n">
-        <v>714</v>
+        <v>740</v>
       </c>
     </row>
     <row r="15">
@@ -7146,16 +7118,16 @@
         <v>48</v>
       </c>
       <c r="B15" t="n">
-        <v>7132</v>
+        <v>7663</v>
       </c>
       <c r="C15" t="n">
-        <v>2237.7</v>
+        <v>2404.3</v>
       </c>
       <c r="E15" t="n">
-        <v>3946</v>
+        <v>4342</v>
       </c>
       <c r="F15" t="n">
-        <v>1238.1</v>
+        <v>1362.3</v>
       </c>
     </row>
     <row r="16">
@@ -7163,16 +7135,16 @@
         <v>49</v>
       </c>
       <c r="B16" t="n">
-        <v>17216</v>
+        <v>18211</v>
       </c>
       <c r="C16" t="n">
-        <v>3446.8</v>
+        <v>3646</v>
       </c>
       <c r="E16" t="n">
-        <v>7029</v>
+        <v>7730</v>
       </c>
       <c r="F16" t="n">
-        <v>1407.3</v>
+        <v>1547.6</v>
       </c>
     </row>
     <row r="17">
@@ -7180,16 +7152,16 @@
         <v>50</v>
       </c>
       <c r="B17" t="n">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="C17" t="n">
-        <v>933.1</v>
+        <v>987.6</v>
       </c>
       <c r="E17" t="n">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F17" t="n">
-        <v>376.2</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18">
@@ -7197,16 +7169,16 @@
         <v>51</v>
       </c>
       <c r="B18" t="n">
-        <v>2132</v>
+        <v>2254</v>
       </c>
       <c r="C18" t="n">
-        <v>1074.7</v>
+        <v>1136.2</v>
       </c>
       <c r="E18" t="n">
-        <v>817</v>
+        <v>901</v>
       </c>
       <c r="F18" t="n">
-        <v>411.8</v>
+        <v>454.2</v>
       </c>
     </row>
     <row r="19">
@@ -7214,16 +7186,16 @@
         <v>52</v>
       </c>
       <c r="B19" t="n">
-        <v>1542</v>
+        <v>1597</v>
       </c>
       <c r="C19" t="n">
-        <v>2100.3</v>
+        <v>2175.2</v>
       </c>
       <c r="E19" t="n">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="F19" t="n">
-        <v>1306.2</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="20">
@@ -7231,16 +7203,16 @@
         <v>53</v>
       </c>
       <c r="B20" t="n">
-        <v>3592</v>
+        <v>3858</v>
       </c>
       <c r="C20" t="n">
-        <v>877</v>
+        <v>942</v>
       </c>
       <c r="E20" t="n">
-        <v>2015</v>
+        <v>2194</v>
       </c>
       <c r="F20" t="n">
-        <v>492</v>
+        <v>535.7</v>
       </c>
     </row>
     <row r="21">
@@ -7248,16 +7220,16 @@
         <v>54</v>
       </c>
       <c r="B21" t="n">
-        <v>3238</v>
+        <v>3426</v>
       </c>
       <c r="C21" t="n">
-        <v>1830.9</v>
+        <v>1937.2</v>
       </c>
       <c r="E21" t="n">
-        <v>1722</v>
+        <v>1794</v>
       </c>
       <c r="F21" t="n">
-        <v>973.7</v>
+        <v>1014.4</v>
       </c>
     </row>
     <row r="22">
@@ -7265,16 +7237,16 @@
         <v>55</v>
       </c>
       <c r="B22" t="n">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C22" t="n">
-        <v>858.3</v>
+        <v>895.4</v>
       </c>
       <c r="E22" t="n">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F22" t="n">
-        <v>349.4</v>
+        <v>374.8</v>
       </c>
     </row>
     <row r="23">
@@ -7282,16 +7254,16 @@
         <v>56</v>
       </c>
       <c r="B23" t="n">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="C23" t="n">
-        <v>909.1</v>
+        <v>977.8</v>
       </c>
       <c r="E23" t="n">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="F23" t="n">
-        <v>446.6</v>
+        <v>499.5</v>
       </c>
     </row>
     <row r="24">
@@ -7299,16 +7271,16 @@
         <v>57</v>
       </c>
       <c r="B24" t="n">
-        <v>5533</v>
+        <v>6094</v>
       </c>
       <c r="C24" t="n">
-        <v>1089.8</v>
+        <v>1200.3</v>
       </c>
       <c r="E24" t="n">
-        <v>3127</v>
+        <v>3535</v>
       </c>
       <c r="F24" t="n">
-        <v>615.9</v>
+        <v>696.3</v>
       </c>
     </row>
     <row r="25">
@@ -7316,16 +7288,16 @@
         <v>58</v>
       </c>
       <c r="B25" t="n">
-        <v>537</v>
+        <v>577</v>
       </c>
       <c r="C25" t="n">
-        <v>654.9</v>
+        <v>703.7</v>
       </c>
       <c r="E25" t="n">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="F25" t="n">
-        <v>336.6</v>
+        <v>375.7</v>
       </c>
     </row>
     <row r="26">
@@ -7333,16 +7305,16 @@
         <v>59</v>
       </c>
       <c r="B26" t="n">
-        <v>1959</v>
+        <v>2100</v>
       </c>
       <c r="C26" t="n">
-        <v>717.1</v>
+        <v>768.7</v>
       </c>
       <c r="E26" t="n">
-        <v>906</v>
+        <v>1016</v>
       </c>
       <c r="F26" t="n">
-        <v>331.6</v>
+        <v>371.9</v>
       </c>
     </row>
     <row r="27">
@@ -7350,16 +7322,16 @@
         <v>60</v>
       </c>
       <c r="B27" t="n">
-        <v>2642</v>
+        <v>2791</v>
       </c>
       <c r="C27" t="n">
-        <v>1659.9</v>
+        <v>1753.5</v>
       </c>
       <c r="E27" t="n">
-        <v>1523</v>
+        <v>1560</v>
       </c>
       <c r="F27" t="n">
-        <v>956.9</v>
+        <v>980.1</v>
       </c>
     </row>
     <row r="28">
@@ -7367,16 +7339,16 @@
         <v>61</v>
       </c>
       <c r="B28" t="n">
-        <v>2092</v>
+        <v>2323</v>
       </c>
       <c r="C28" t="n">
-        <v>756.7</v>
+        <v>840.2</v>
       </c>
       <c r="E28" t="n">
-        <v>1160</v>
+        <v>1333</v>
       </c>
       <c r="F28" t="n">
-        <v>419.6</v>
+        <v>482.1</v>
       </c>
     </row>
     <row r="29">
@@ -7384,16 +7356,16 @@
         <v>62</v>
       </c>
       <c r="B29" t="n">
-        <v>6131</v>
+        <v>6441</v>
       </c>
       <c r="C29" t="n">
-        <v>1735.1</v>
+        <v>1822.9</v>
       </c>
       <c r="E29" t="n">
-        <v>2168</v>
+        <v>2387</v>
       </c>
       <c r="F29" t="n">
-        <v>613.6</v>
+        <v>675.5</v>
       </c>
     </row>
     <row r="30">
@@ -7401,16 +7373,16 @@
         <v>63</v>
       </c>
       <c r="B30" t="n">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="C30" t="n">
-        <v>938.7</v>
+        <v>1026.5</v>
       </c>
       <c r="E30" t="n">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="F30" t="n">
-        <v>411.7</v>
+        <v>485.8</v>
       </c>
     </row>
     <row r="31">
@@ -7418,16 +7390,16 @@
         <v>64</v>
       </c>
       <c r="B31" t="n">
-        <v>20545</v>
+        <v>21720</v>
       </c>
       <c r="C31" t="n">
-        <v>2570.9</v>
+        <v>2717.9</v>
       </c>
       <c r="E31" t="n">
-        <v>7967</v>
+        <v>8825</v>
       </c>
       <c r="F31" t="n">
-        <v>996.9</v>
+        <v>1104.3</v>
       </c>
     </row>
     <row r="32">
@@ -7435,16 +7407,16 @@
         <v>65</v>
       </c>
       <c r="B32" t="n">
-        <v>9659</v>
+        <v>10494</v>
       </c>
       <c r="C32" t="n">
-        <v>2808.2</v>
+        <v>3051</v>
       </c>
       <c r="E32" t="n">
-        <v>6080</v>
+        <v>6693</v>
       </c>
       <c r="F32" t="n">
-        <v>1767.7</v>
+        <v>1945.9</v>
       </c>
     </row>
     <row r="33">
@@ -7452,16 +7424,16 @@
         <v>66</v>
       </c>
       <c r="B33" t="n">
-        <v>1422</v>
+        <v>1496</v>
       </c>
       <c r="C33" t="n">
-        <v>1121.1</v>
+        <v>1179.5</v>
       </c>
       <c r="E33" t="n">
-        <v>757</v>
+        <v>780</v>
       </c>
       <c r="F33" t="n">
-        <v>596.8</v>
+        <v>615</v>
       </c>
     </row>
     <row r="34">
@@ -7469,16 +7441,16 @@
         <v>67</v>
       </c>
       <c r="B34" t="n">
-        <v>18295</v>
+        <v>19577</v>
       </c>
       <c r="C34" t="n">
-        <v>1202.9</v>
+        <v>1287.1</v>
       </c>
       <c r="E34" t="n">
-        <v>7972</v>
+        <v>8842</v>
       </c>
       <c r="F34" t="n">
-        <v>524.1</v>
+        <v>581.3</v>
       </c>
     </row>
     <row r="35">
@@ -7486,16 +7458,16 @@
         <v>68</v>
       </c>
       <c r="B35" t="n">
-        <v>127042</v>
+        <v>135658</v>
       </c>
       <c r="C35" t="n">
-        <v>1480.2</v>
+        <v>1580.6</v>
       </c>
       <c r="E35" t="n">
-        <v>59510</v>
+        <v>65441</v>
       </c>
       <c r="F35" t="n">
-        <v>693.4</v>
+        <v>762.5</v>
       </c>
     </row>
     <row r="37">
@@ -7574,7 +7546,7 @@
         <v>25</v>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
         <v>22</v>
@@ -7583,13 +7555,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F8" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="H8" t="n">
         <v>5.2</v>
@@ -7600,7 +7572,7 @@
         <v>26</v>
       </c>
       <c r="B9" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="n">
         <v>28</v>
@@ -7609,13 +7581,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>9.2</v>
       </c>
       <c r="H9" t="n">
         <v>6.8</v>
@@ -7626,25 +7598,25 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C10" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F10" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="G10" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="H10" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="11">
@@ -7655,22 +7627,22 @@
         <v>129</v>
       </c>
       <c r="C11" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F11" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="G11" t="n">
         <v>20.9</v>
       </c>
       <c r="H11" t="n">
-        <v>18.2</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="12">
@@ -7678,25 +7650,25 @@
         <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C12" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="F12" t="n">
-        <v>36.3</v>
+        <v>36.9</v>
       </c>
       <c r="G12" t="n">
-        <v>42.6</v>
+        <v>43.2</v>
       </c>
       <c r="H12" t="n">
-        <v>29.9</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="13">
@@ -7704,25 +7676,25 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="C13" t="n">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>868</v>
+        <v>887</v>
       </c>
       <c r="F13" t="n">
-        <v>67.4</v>
+        <v>68.9</v>
       </c>
       <c r="G13" t="n">
-        <v>83.9</v>
+        <v>86.2</v>
       </c>
       <c r="H13" t="n">
-        <v>50.6</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="14">
@@ -7730,25 +7702,25 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="C14" t="n">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1103</v>
+        <v>1121</v>
       </c>
       <c r="F14" t="n">
-        <v>117.8</v>
+        <v>119.7</v>
       </c>
       <c r="G14" t="n">
-        <v>160.2</v>
+        <v>162.4</v>
       </c>
       <c r="H14" t="n">
-        <v>76.4</v>
+        <v>78.1</v>
       </c>
     </row>
     <row r="15">
@@ -7756,25 +7728,25 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>902</v>
+        <v>928</v>
       </c>
       <c r="C15" t="n">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1504</v>
+        <v>1541</v>
       </c>
       <c r="F15" t="n">
-        <v>212.2</v>
+        <v>217.4</v>
       </c>
       <c r="G15" t="n">
-        <v>273.5</v>
+        <v>281.4</v>
       </c>
       <c r="H15" t="n">
-        <v>158.8</v>
+        <v>161.7</v>
       </c>
     </row>
     <row r="16">
@@ -7782,25 +7754,25 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>928</v>
+        <v>956</v>
       </c>
       <c r="C16" t="n">
-        <v>863</v>
+        <v>893</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1791</v>
+        <v>1849</v>
       </c>
       <c r="F16" t="n">
-        <v>402.4</v>
+        <v>415.4</v>
       </c>
       <c r="G16" t="n">
-        <v>549.9</v>
+        <v>566.5</v>
       </c>
       <c r="H16" t="n">
-        <v>312.3</v>
+        <v>323.1</v>
       </c>
     </row>
     <row r="17">
@@ -8053,25 +8025,25 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C15" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F15" t="n">
-        <v>54.2</v>
+        <v>54.9</v>
       </c>
       <c r="G15" t="n">
-        <v>77.3</v>
+        <v>78.5</v>
       </c>
       <c r="H15" t="n">
-        <v>34</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="16">
@@ -8079,25 +8051,25 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="C16" t="n">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1347</v>
+        <v>1366</v>
       </c>
       <c r="F16" t="n">
-        <v>302.6</v>
+        <v>306.9</v>
       </c>
       <c r="G16" t="n">
-        <v>417.7</v>
+        <v>424.3</v>
       </c>
       <c r="H16" t="n">
-        <v>232.3</v>
+        <v>235.2</v>
       </c>
     </row>
     <row r="18">
@@ -8175,7 +8147,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44129</v>
+        <v>44131</v>
       </c>
       <c r="C8" t="s">
         <v>94</v>
@@ -8187,13 +8159,13 @@
         <v>96</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>66.7937665049166</v>
+        <v>100.264373561464</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>51.9015580788756</v>
+        <v>60.7484145695931</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>210.702632087254</v>
+        <v>246.384953266481</v>
       </c>
     </row>
     <row r="9">
@@ -8201,7 +8173,7 @@
         <v>42</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44126</v>
+        <v>44131</v>
       </c>
       <c r="C9" t="s">
         <v>97</v>
@@ -8210,42 +8182,36 @@
         <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>408.795292660266</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>408.795292660266</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>130.071229482812</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44127</v>
+        <v>44131</v>
       </c>
       <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
         <v>99</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>100</v>
       </c>
-      <c r="E10" t="s">
-        <v>101</v>
-      </c>
       <c r="F10" s="2" t="n">
-        <v>181.047905275736</v>
+        <v>210.015570119854</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>135.785928956802</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>271.571857913604</v>
+        <v>226.30988159467</v>
       </c>
     </row>
     <row r="11">
@@ -8253,51 +8219,45 @@
         <v>44</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44126</v>
+        <v>44131</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>281.455529929651</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>127.249204571696</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44126</v>
+        <v>44131</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>85.7245984479336</v>
+        <v>105.507198089764</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>285.980036927519</v>
+        <v>274.874016075965</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>135.701692279927</v>
+        <v>117.307345244541</v>
       </c>
     </row>
     <row r="13">
@@ -8305,25 +8265,25 @@
         <v>46</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44127</v>
+        <v>44131</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>204.861218077077</v>
+        <v>271.094544222298</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>276.228910590144</v>
+        <v>1076.67662733742</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>198.699978435661</v>
+        <v>138.114455295072</v>
       </c>
     </row>
     <row r="14">
@@ -8331,25 +8291,25 @@
         <v>47</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44126</v>
+        <v>44131</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>323.101777059774</v>
+        <v>588.879045286362</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>797.331804679764</v>
+        <v>1107.40528427745</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>164.156548022304</v>
+        <v>112.043358173954</v>
       </c>
     </row>
     <row r="15">
@@ -8357,45 +8317,51 @@
         <v>48</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44126</v>
+        <v>44131</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>1079.02382700478</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>405.379117327761</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>176.96116267249</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>49</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44126</v>
+        <v>44131</v>
       </c>
       <c r="C16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" t="s">
         <v>115</v>
       </c>
-      <c r="D16" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" t="s">
-        <v>117</v>
-      </c>
       <c r="F16" s="2" t="n">
-        <v>297.108993353087</v>
+        <v>755.185392808521</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>409.225594618403</v>
+        <v>438.856410667094</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>370.184992392088</v>
+        <v>407.023304236406</v>
       </c>
     </row>
     <row r="17">
@@ -8403,51 +8369,45 @@
         <v>50</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44126</v>
+        <v>44131</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>188.104843699725</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>485.11249164666</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>180.679652501052</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44126</v>
+        <v>44131</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>148.705256100696</v>
+        <v>246.497865197425</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>344.794559908055</v>
+        <v>525.761295298394</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>234.90389607771</v>
+        <v>238.432495375014</v>
       </c>
     </row>
     <row r="19">
@@ -8455,51 +8415,45 @@
         <v>52</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44126</v>
+        <v>44131</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>572.059003800106</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>784.538062354431</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44126</v>
+        <v>44131</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>279.81453131066</v>
+        <v>402.874325185505</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>242.945426399744</v>
+        <v>124.768957678663</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>119.397300009522</v>
+        <v>129.896449090114</v>
       </c>
     </row>
     <row r="21">
@@ -8507,123 +8461,111 @@
         <v>54</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44126</v>
+        <v>44131</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>517.953067571388</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>726.604467062482</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>179.247950240317</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>55</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44126</v>
+        <v>44131</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>738.032991694237</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>437.26719570599</v>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>180.459477592948</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44126</v>
+        <v>44131</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>221.981448693216</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>541.740440263207</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>195.555085753548</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>57</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44126</v>
+        <v>44131</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>222.179764702175</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>0</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44126</v>
+        <v>44131</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>140.259296752083</v>
+        <v>295.15434620873</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>368.333109731556</v>
+        <v>591.528338476174</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>189.045139100633</v>
+        <v>187.825493041919</v>
       </c>
     </row>
     <row r="26">
@@ -8631,25 +8573,25 @@
         <v>59</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44126</v>
+        <v>44131</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>109.079994436188</v>
+        <v>211.205224126445</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>167.646434401927</v>
+        <v>183.386165142719</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>138.363214419058</v>
+        <v>117.498920181263</v>
       </c>
     </row>
     <row r="27">
@@ -8657,16 +8599,16 @@
         <v>60</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44126</v>
+        <v>44131</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -8677,51 +8619,45 @@
         <v>61</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44126</v>
+        <v>44131</v>
       </c>
       <c r="C28" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>144</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>164.935327989815</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>438.019039902775</v>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>185.913944269221</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44126</v>
+        <v>44131</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>116.317572443773</v>
+        <v>0</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>295.180603549526</v>
+        <v>0</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>162.731396971215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -8729,25 +8665,25 @@
         <v>63</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44126</v>
+        <v>44131</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="E30" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>241.539263854198</v>
+        <v>367.798424505256</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1701.7539044273</v>
+        <v>757.554963906349</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>112.53533884116</v>
+        <v>145.472511184915</v>
       </c>
     </row>
     <row r="31">
@@ -8755,16 +8691,16 @@
         <v>64</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44126</v>
+        <v>44131</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -8775,25 +8711,25 @@
         <v>65</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44126</v>
+        <v>44131</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D32" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E32" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>925.993225858034</v>
+        <v>1415.30142024393</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>195.37439490631</v>
+        <v>188.106002238665</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>206.422351761132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -8801,25 +8737,25 @@
         <v>66</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44126</v>
+        <v>44131</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E33" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>314.576976749687</v>
+        <v>399.725632110504</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>398.148805159378</v>
+        <v>164.778416392693</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>500.642556982584</v>
+        <v>394.995151257125</v>
       </c>
     </row>
     <row r="34">
@@ -8827,25 +8763,25 @@
         <v>67</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44126</v>
+        <v>44131</v>
       </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>282.12296379674</v>
+        <v>388.371089990059</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>564.24592759348</v>
+        <v>725.064564145991</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>356.877988228549</v>
+        <v>309.342471373494</v>
       </c>
     </row>
   </sheetData>
